--- a/aiurt-module-system/src/main/resources/templates/sparePartInOrderErrorSignal.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/sparePartInOrderErrorSignal.xlsx
@@ -31,7 +31,7 @@
 5.物资名称：必填，编码与名称需对应得上； 
 6.入库数量：必填，
 7.全新数量：必填，
-8.已使用数量：必填，全新数量+已使用数量=入库数量
+8.已使用数量：必填，
 9.待报废数量：必填，
 10.委外送修数量：必填
 </t>
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
